--- a/ExcelHistory/history.xlsx
+++ b/ExcelHistory/history.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -35,55 +35,238 @@
     <t>timeof</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ANASS</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>fatima</t>
+  </si>
+  <si>
+    <t>2022-11-20</t>
+  </si>
+  <si>
+    <t>JC23456</t>
+  </si>
+  <si>
+    <t>taroudant</t>
+  </si>
+  <si>
+    <t>knitra</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>omar</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>JC45678</t>
+  </si>
+  <si>
+    <t>sidi ifni</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>agourrame</t>
+  </si>
+  <si>
+    <t>JC234563</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ousama</t>
+  </si>
+  <si>
+    <t>JC456782</t>
+  </si>
+  <si>
+    <t>agadir</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>khalid</t>
+  </si>
+  <si>
+    <t>JC234567</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>salma</t>
+  </si>
+  <si>
+    <t>JC48392</t>
+  </si>
+  <si>
+    <t>oujda</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>yassin</t>
+  </si>
+  <si>
+    <t>D1234567</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>nisrin</t>
+  </si>
+  <si>
+    <t>KD2345</t>
+  </si>
+  <si>
+    <t>dakhla</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>oussama</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>BN23456</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ilyass</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>JC3456</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>2022-11-24</t>
   </si>
   <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>taroudant</t>
-  </si>
-  <si>
-    <t>agadir</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>laila</t>
+    <t>KF34567</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>LK34543</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>JC34543</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>kjh6789</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>hamza</t>
   </si>
   <si>
     <t>2022-11-29</t>
   </si>
   <si>
-    <t>KC12</t>
-  </si>
-  <si>
-    <t>laayoune</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>imad</t>
-  </si>
-  <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>FFD13</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>JC34567</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>DE34543</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>CD34578</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>SD231111</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>zz33212</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>aaé"&amp;</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>DF23456</t>
   </si>
 </sst>
 </file>
@@ -128,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,42 +371,525 @@
         <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="0">
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="B5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="C5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
